--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVVinh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVVinh\Desktop\Auto Test Code\IE\-Topgun-Auto-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CDAD6A-6A8D-4590-82F6-F7481DF41416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5F9B66-118C-427F-9599-62855D6E51AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7890" yWindow="4020" windowWidth="26790" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
